--- a/PA sys rev data.xlsx
+++ b/PA sys rev data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox/SysRev_Apps_PA/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB271525-18E7-3944-938C-E9B5E8C3BE49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6AD556-B0BB-AD45-A234-F9F49FA214F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="540" windowWidth="21860" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,10 +630,10 @@
   <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2373,7 @@
         <v>13.09</v>
       </c>
       <c r="D40">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40">
         <v>-0.85631999999999997</v>
@@ -2382,7 +2382,7 @@
         <v>12.20068</v>
       </c>
       <c r="G40">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -4122,7 +4122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>21317.8</v>
       </c>
       <c r="D82">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E82" s="1">
         <v>44592.2</v>
@@ -4230,7 +4230,7 @@
         <v>22192.16</v>
       </c>
       <c r="G82" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H82" t="s">
         <v>30</v>
@@ -4265,7 +4265,7 @@
         <v>961.9</v>
       </c>
       <c r="D83">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E83" s="1">
         <v>422.8</v>
@@ -4274,7 +4274,7 @@
         <v>743.4</v>
       </c>
       <c r="G83" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
@@ -5110,7 +5110,7 @@
         <v>13.35</v>
       </c>
       <c r="G102" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>12</v>
@@ -5154,7 +5154,7 @@
         <v>41.44</v>
       </c>
       <c r="G103" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>61</v>
@@ -5198,7 +5198,7 @@
         <v>24.77</v>
       </c>
       <c r="G104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H104" t="s">
         <v>62</v>
@@ -5233,7 +5233,7 @@
         <v>23.65</v>
       </c>
       <c r="D105">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E105" s="1">
         <v>59.19</v>
@@ -5242,7 +5242,7 @@
         <v>22.44</v>
       </c>
       <c r="G105" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H105" t="s">
         <v>12</v>
@@ -5277,7 +5277,7 @@
         <v>47.85</v>
       </c>
       <c r="D106">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E106" s="1">
         <v>277.22000000000003</v>
@@ -5286,7 +5286,7 @@
         <v>50.91</v>
       </c>
       <c r="G106" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H106" t="s">
         <v>61</v>
@@ -5321,7 +5321,7 @@
         <v>61.65</v>
       </c>
       <c r="D107">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E107" s="1">
         <v>515.08000000000004</v>
@@ -5330,7 +5330,7 @@
         <v>64.05</v>
       </c>
       <c r="G107" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H107" t="s">
         <v>62</v>

--- a/PA sys rev data.xlsx
+++ b/PA sys rev data.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markkelson/Dropbox/SysRev_Apps_PA/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6AD556-B0BB-AD45-A234-F9F49FA214F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E6D3F-7B08-8846-8D52-71E85886ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="540" windowWidth="21860" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="540" windowWidth="23800" windowHeight="20580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="67">
   <si>
     <t>Author</t>
   </si>
@@ -223,6 +230,9 @@
   </si>
   <si>
     <t>Greaney2017</t>
+  </si>
+  <si>
+    <t>SelfReportPA</t>
   </si>
 </sst>
 </file>
@@ -627,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,9 +651,10 @@
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,8 +700,11 @@
       <c r="O1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -733,8 +747,14 @@
       <c r="N2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -777,8 +797,14 @@
       <c r="N3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -821,8 +847,14 @@
       <c r="N4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -865,8 +897,14 @@
       <c r="N5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -909,8 +947,14 @@
       <c r="N6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -953,8 +997,14 @@
       <c r="N7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -997,8 +1047,14 @@
       <c r="N8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1041,8 +1097,14 @@
       <c r="N9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1085,8 +1147,14 @@
       <c r="N10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1129,8 +1197,14 @@
       <c r="N11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1173,8 +1247,14 @@
       <c r="N12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1217,8 +1297,14 @@
       <c r="N13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1261,8 +1347,14 @@
       <c r="N14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1305,8 +1397,14 @@
       <c r="N15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1349,8 +1447,14 @@
       <c r="N16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1393,8 +1497,14 @@
       <c r="N17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1437,8 +1547,14 @@
       <c r="N18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1481,8 +1597,14 @@
       <c r="N19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1525,8 +1647,14 @@
       <c r="N20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1569,8 +1697,14 @@
       <c r="N21" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1613,8 +1747,14 @@
       <c r="N22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1657,8 +1797,14 @@
       <c r="N23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1701,8 +1847,14 @@
       <c r="N24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1745,8 +1897,14 @@
       <c r="N25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>20</v>
+      </c>
+      <c r="P25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1789,8 +1947,14 @@
       <c r="N26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1833,8 +1997,14 @@
       <c r="N27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1877,8 +2047,14 @@
       <c r="N28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -1921,8 +2097,14 @@
       <c r="N29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1965,8 +2147,14 @@
       <c r="N30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2009,8 +2197,14 @@
       <c r="N31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2053,8 +2247,14 @@
       <c r="N32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -2097,8 +2297,14 @@
       <c r="N33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2141,8 +2347,14 @@
       <c r="N34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2185,8 +2397,14 @@
       <c r="N35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2229,8 +2447,14 @@
       <c r="N36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -2273,8 +2497,14 @@
       <c r="N37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -2317,8 +2547,14 @@
       <c r="N38" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2361,8 +2597,14 @@
       <c r="N39" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -2405,8 +2647,14 @@
       <c r="N40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2449,8 +2697,14 @@
       <c r="N41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -2493,8 +2747,14 @@
       <c r="N42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2537,8 +2797,14 @@
       <c r="N43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2581,8 +2847,14 @@
       <c r="N44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2625,8 +2897,14 @@
       <c r="N45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2669,8 +2947,14 @@
       <c r="N46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2713,8 +2997,14 @@
       <c r="N47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2757,8 +3047,14 @@
       <c r="N48" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2801,8 +3097,14 @@
       <c r="N49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2845,8 +3147,14 @@
       <c r="N50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2889,8 +3197,14 @@
       <c r="N51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -2933,8 +3247,14 @@
       <c r="N52" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -2977,8 +3297,14 @@
       <c r="N53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -3021,8 +3347,14 @@
       <c r="N54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -3065,8 +3397,14 @@
       <c r="N55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3109,8 +3447,14 @@
       <c r="N56" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -3153,8 +3497,14 @@
       <c r="N57" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -3197,8 +3547,14 @@
       <c r="N58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -3241,8 +3597,14 @@
       <c r="N59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -3285,8 +3647,14 @@
       <c r="N60" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>20</v>
+      </c>
+      <c r="P60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -3329,8 +3697,14 @@
       <c r="N61" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -3373,8 +3747,14 @@
       <c r="N62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -3417,8 +3797,14 @@
       <c r="N63" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -3459,10 +3845,16 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="O64" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -3505,8 +3897,14 @@
       <c r="N65" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -3549,8 +3947,14 @@
       <c r="N66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>15</v>
+      </c>
+      <c r="P66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -3593,8 +3997,14 @@
       <c r="N67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" t="s">
+        <v>15</v>
+      </c>
+      <c r="P67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -3637,8 +4047,14 @@
       <c r="N68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" t="s">
+        <v>15</v>
+      </c>
+      <c r="P68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -3679,10 +4095,16 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="O69" t="s">
+        <v>15</v>
+      </c>
+      <c r="P69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -3723,10 +4145,16 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="O70" t="s">
+        <v>15</v>
+      </c>
+      <c r="P70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -3769,8 +4197,14 @@
       <c r="N71" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -3813,8 +4247,14 @@
       <c r="N72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" t="s">
+        <v>15</v>
+      </c>
+      <c r="P72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -3857,8 +4297,14 @@
       <c r="N73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>15</v>
+      </c>
+      <c r="P73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -3901,8 +4347,14 @@
       <c r="N74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" t="s">
+        <v>15</v>
+      </c>
+      <c r="P74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>49</v>
       </c>
@@ -3943,10 +4395,16 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="O75" t="s">
+        <v>15</v>
+      </c>
+      <c r="P75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>50</v>
       </c>
@@ -3989,8 +4447,14 @@
       <c r="N76" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -4033,8 +4497,14 @@
       <c r="N77" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" t="s">
+        <v>20</v>
+      </c>
+      <c r="P77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
@@ -4077,8 +4547,14 @@
       <c r="N78" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>50</v>
       </c>
@@ -4121,8 +4597,14 @@
       <c r="N79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O79" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>52</v>
       </c>
@@ -4165,8 +4647,14 @@
       <c r="N80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -4209,8 +4697,14 @@
       <c r="N81" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -4253,8 +4747,14 @@
       <c r="N82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" t="s">
+        <v>20</v>
+      </c>
+      <c r="P82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -4297,8 +4797,14 @@
       <c r="N83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O83" t="s">
+        <v>20</v>
+      </c>
+      <c r="P83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>53</v>
       </c>
@@ -4341,8 +4847,14 @@
       <c r="N84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O84" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>53</v>
       </c>
@@ -4385,8 +4897,14 @@
       <c r="N85" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O85" t="s">
+        <v>20</v>
+      </c>
+      <c r="P85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>53</v>
       </c>
@@ -4429,8 +4947,14 @@
       <c r="N86" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" t="s">
+        <v>20</v>
+      </c>
+      <c r="P86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>53</v>
       </c>
@@ -4473,8 +4997,14 @@
       <c r="N87" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>53</v>
       </c>
@@ -4517,8 +5047,14 @@
       <c r="N88" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O88" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>53</v>
       </c>
@@ -4561,8 +5097,14 @@
       <c r="N89" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O89" t="s">
+        <v>20</v>
+      </c>
+      <c r="P89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -4605,8 +5147,14 @@
       <c r="N90" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -4649,8 +5197,14 @@
       <c r="N91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" t="s">
+        <v>20</v>
+      </c>
+      <c r="P91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>53</v>
       </c>
@@ -4693,8 +5247,14 @@
       <c r="N92" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" t="s">
+        <v>20</v>
+      </c>
+      <c r="P92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>53</v>
       </c>
@@ -4737,8 +5297,14 @@
       <c r="N93" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" t="s">
+        <v>20</v>
+      </c>
+      <c r="P93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>53</v>
       </c>
@@ -4775,14 +5341,20 @@
       <c r="L94">
         <v>3</v>
       </c>
-      <c r="M94">
-        <v>3</v>
+      <c r="M94" t="s">
+        <v>15</v>
       </c>
       <c r="N94" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" t="s">
+        <v>20</v>
+      </c>
+      <c r="P94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>53</v>
       </c>
@@ -4825,8 +5397,14 @@
       <c r="N95" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" t="s">
+        <v>20</v>
+      </c>
+      <c r="P95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>53</v>
       </c>
@@ -4869,8 +5447,14 @@
       <c r="N96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O96" t="s">
+        <v>20</v>
+      </c>
+      <c r="P96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>53</v>
       </c>
@@ -4913,8 +5497,14 @@
       <c r="N97" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" t="s">
+        <v>20</v>
+      </c>
+      <c r="P97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>53</v>
       </c>
@@ -4957,8 +5547,14 @@
       <c r="N98" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="O98" t="s">
+        <v>20</v>
+      </c>
+      <c r="P98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -5001,8 +5597,14 @@
       <c r="N99" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" t="s">
+        <v>20</v>
+      </c>
+      <c r="P99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>56</v>
       </c>
@@ -5045,8 +5647,14 @@
       <c r="N100" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" t="s">
+        <v>15</v>
+      </c>
+      <c r="P100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -5089,8 +5697,14 @@
       <c r="N101" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" t="s">
+        <v>15</v>
+      </c>
+      <c r="P101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>63</v>
       </c>
@@ -5133,8 +5747,14 @@
       <c r="N102" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" t="s">
+        <v>20</v>
+      </c>
+      <c r="P102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>63</v>
       </c>
@@ -5177,8 +5797,14 @@
       <c r="N103" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" t="s">
+        <v>20</v>
+      </c>
+      <c r="P103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>63</v>
       </c>
@@ -5221,8 +5847,14 @@
       <c r="N104" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" t="s">
+        <v>20</v>
+      </c>
+      <c r="P104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>63</v>
       </c>
@@ -5265,8 +5897,14 @@
       <c r="N105" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" t="s">
+        <v>20</v>
+      </c>
+      <c r="P105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>63</v>
       </c>
@@ -5309,8 +5947,14 @@
       <c r="N106" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" t="s">
+        <v>20</v>
+      </c>
+      <c r="P106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>63</v>
       </c>
@@ -5351,6 +5995,12 @@
         <v>3</v>
       </c>
       <c r="N107" t="s">
+        <v>20</v>
+      </c>
+      <c r="O107" t="s">
+        <v>20</v>
+      </c>
+      <c r="P107" t="s">
         <v>20</v>
       </c>
     </row>
